--- a/xlsx/aerob-run-1mile5.xlsx
+++ b/xlsx/aerob-run-1mile5.xlsx
@@ -58,7 +58,87 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1744,7 +1824,7 @@
         <v>18.559999999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>19.36</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="T22" s="1">
         <v>21.22</v>
@@ -1806,7 +1886,7 @@
         <v>18.48</v>
       </c>
       <c r="S23" s="1">
-        <v>19.34</v>
+        <v>19.18</v>
       </c>
       <c r="T23" s="1">
         <v>21.18</v>
@@ -1868,7 +1948,7 @@
         <v>18.41</v>
       </c>
       <c r="S24" s="1">
-        <v>19.260000000000002</v>
+        <v>19.07</v>
       </c>
       <c r="T24" s="1">
         <v>21.04</v>
@@ -1930,7 +2010,7 @@
         <v>18.34</v>
       </c>
       <c r="S25" s="1">
-        <v>19.18</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="T25" s="1">
         <v>20.5</v>
@@ -1992,7 +2072,7 @@
         <v>18.27</v>
       </c>
       <c r="S26" s="1">
-        <v>19.07</v>
+        <v>18.48</v>
       </c>
       <c r="T26" s="1">
         <v>20.41</v>
@@ -2054,7 +2134,7 @@
         <v>18.2</v>
       </c>
       <c r="S27" s="1">
-        <v>18.559999999999999</v>
+        <v>18.41</v>
       </c>
       <c r="T27" s="1">
         <v>20.32</v>
@@ -2116,7 +2196,7 @@
         <v>18.13</v>
       </c>
       <c r="S28" s="1">
-        <v>18.48</v>
+        <v>18.34</v>
       </c>
       <c r="T28" s="1">
         <v>20.239999999999998</v>
@@ -2178,7 +2258,7 @@
         <v>18.059999999999999</v>
       </c>
       <c r="S29" s="1">
-        <v>18.41</v>
+        <v>18.27</v>
       </c>
       <c r="T29" s="1">
         <v>20.149999999999999</v>
@@ -2240,7 +2320,7 @@
         <v>17.559999999999999</v>
       </c>
       <c r="S30" s="1">
-        <v>18.34</v>
+        <v>18.2</v>
       </c>
       <c r="T30" s="1">
         <v>20.07</v>
@@ -2302,7 +2382,7 @@
         <v>17.46</v>
       </c>
       <c r="S31" s="1">
-        <v>18.27</v>
+        <v>18.13</v>
       </c>
       <c r="T31" s="1">
         <v>19.579999999999998</v>
@@ -2364,7 +2444,7 @@
         <v>17.36</v>
       </c>
       <c r="S32" s="1">
-        <v>18.2</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="T32" s="1">
         <v>19.5</v>
@@ -2426,7 +2506,7 @@
         <v>17.27</v>
       </c>
       <c r="S33" s="1">
-        <v>18.13</v>
+        <v>17.59</v>
       </c>
       <c r="T33" s="1">
         <v>19.46</v>
@@ -2488,7 +2568,7 @@
         <v>17.21</v>
       </c>
       <c r="S34" s="1">
-        <v>18.059999999999999</v>
+        <v>17.53</v>
       </c>
       <c r="T34" s="1">
         <v>19.420000000000002</v>
@@ -2550,7 +2630,7 @@
         <v>17.14</v>
       </c>
       <c r="S35" s="1">
-        <v>17.59</v>
+        <v>17.46</v>
       </c>
       <c r="T35" s="1">
         <v>19.34</v>
@@ -2612,7 +2692,7 @@
         <v>17.079999999999998</v>
       </c>
       <c r="S36" s="1">
-        <v>17.53</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="T36" s="1">
         <v>19.260000000000002</v>
@@ -2674,7 +2754,7 @@
         <v>17.02</v>
       </c>
       <c r="S37" s="1">
-        <v>17.46</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="T37" s="1">
         <v>19.18</v>
@@ -2736,7 +2816,7 @@
         <v>16.559999999999999</v>
       </c>
       <c r="S38" s="1">
-        <v>17.399999999999999</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="T38" s="1">
         <v>19.11</v>
@@ -2798,7 +2878,7 @@
         <v>16.5</v>
       </c>
       <c r="S39" s="1">
-        <v>17.329999999999998</v>
+        <v>17.14</v>
       </c>
       <c r="T39" s="1">
         <v>19.03</v>
@@ -2860,7 +2940,7 @@
         <v>16.440000000000001</v>
       </c>
       <c r="S40" s="1">
-        <v>17.239999999999998</v>
+        <v>17.11</v>
       </c>
       <c r="T40" s="1">
         <v>18.559999999999999</v>
@@ -2922,7 +3002,7 @@
         <v>16.39</v>
       </c>
       <c r="S41" s="1">
-        <v>17.14</v>
+        <v>17.02</v>
       </c>
       <c r="T41" s="1">
         <v>18.48</v>
@@ -2984,7 +3064,7 @@
         <v>16.329999999999998</v>
       </c>
       <c r="S42" s="1">
-        <v>17.11</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="T42" s="1">
         <v>18.45</v>
@@ -3046,7 +3126,7 @@
         <v>16.25</v>
       </c>
       <c r="S43" s="1">
-        <v>17.02</v>
+        <v>16.5</v>
       </c>
       <c r="T43" s="1">
         <v>18.34</v>
@@ -3108,7 +3188,7 @@
         <v>16.16</v>
       </c>
       <c r="S44" s="1">
-        <v>16.559999999999999</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="T44" s="1">
         <v>18.27</v>
@@ -3170,7 +3250,7 @@
         <v>16.11</v>
       </c>
       <c r="S45" s="1">
-        <v>16.5</v>
+        <v>16.39</v>
       </c>
       <c r="T45" s="1">
         <v>18.2</v>
@@ -3232,7 +3312,7 @@
         <v>16.05</v>
       </c>
       <c r="S46" s="1">
-        <v>16.440000000000001</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="T46" s="1">
         <v>18.13</v>
@@ -3294,7 +3374,7 @@
         <v>16</v>
       </c>
       <c r="S47" s="1">
-        <v>16.39</v>
+        <v>16.25</v>
       </c>
       <c r="T47" s="1">
         <v>18.059999999999999</v>
@@ -3356,7 +3436,7 @@
         <v>15.52</v>
       </c>
       <c r="S48" s="1">
-        <v>16.329999999999998</v>
+        <v>16.16</v>
       </c>
       <c r="T48" s="1">
         <v>17.59</v>
@@ -3418,7 +3498,7 @@
         <v>15.44</v>
       </c>
       <c r="S49" s="1">
-        <v>16.25</v>
+        <v>16.11</v>
       </c>
       <c r="T49" s="1">
         <v>17.53</v>
@@ -3480,7 +3560,7 @@
         <v>15.39</v>
       </c>
       <c r="S50" s="1">
-        <v>16.16</v>
+        <v>16.05</v>
       </c>
       <c r="T50" s="1">
         <v>17.46</v>
@@ -3542,7 +3622,7 @@
         <v>15.34</v>
       </c>
       <c r="S51" s="1">
-        <v>16.11</v>
+        <v>16</v>
       </c>
       <c r="T51" s="1">
         <v>17.399999999999999</v>
@@ -3604,7 +3684,7 @@
         <v>15.29</v>
       </c>
       <c r="S52" s="1">
-        <v>16.05</v>
+        <v>15.52</v>
       </c>
       <c r="T52" s="1">
         <v>17.329999999999998</v>
@@ -3666,7 +3746,7 @@
         <v>15.24</v>
       </c>
       <c r="S53" s="1">
-        <v>16</v>
+        <v>15.44</v>
       </c>
       <c r="T53" s="1">
         <v>17.27</v>
@@ -3728,7 +3808,7 @@
         <v>15.19</v>
       </c>
       <c r="S54" s="1">
-        <v>15.52</v>
+        <v>15.39</v>
       </c>
       <c r="T54" s="1">
         <v>17.21</v>
@@ -3790,7 +3870,7 @@
         <v>15.15</v>
       </c>
       <c r="S55" s="1">
-        <v>15.44</v>
+        <v>15.37</v>
       </c>
       <c r="T55" s="1">
         <v>17.14</v>
@@ -3852,7 +3932,7 @@
         <v>15.1</v>
       </c>
       <c r="S56" s="1">
-        <v>15.39</v>
+        <v>15.35</v>
       </c>
       <c r="T56" s="1">
         <v>17.079999999999998</v>
@@ -3914,7 +3994,7 @@
         <v>15.05</v>
       </c>
       <c r="S57" s="1">
-        <v>15.34</v>
+        <v>15.33</v>
       </c>
       <c r="T57" s="1">
         <v>17.02</v>
@@ -3976,7 +4056,7 @@
         <v>15</v>
       </c>
       <c r="S58" s="1">
-        <v>15.29</v>
+        <v>15.31</v>
       </c>
       <c r="T58" s="1">
         <v>16.559999999999999</v>
@@ -4038,7 +4118,7 @@
         <v>14.56</v>
       </c>
       <c r="S59" s="1">
-        <v>15.25</v>
+        <v>15.29</v>
       </c>
       <c r="T59" s="1">
         <v>16.5</v>
@@ -4100,7 +4180,7 @@
         <v>14.51</v>
       </c>
       <c r="S60" s="1">
-        <v>15.23</v>
+        <v>15.27</v>
       </c>
       <c r="T60" s="1">
         <v>16.440000000000001</v>
@@ -4359,7 +4439,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>11.38</v>
+        <v>11.36</v>
       </c>
       <c r="C65" s="1">
         <v>11.24</v>
@@ -6145,9 +6225,19 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:T77">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:T21 B22:R78 T22:T78 S58:S78 S23:S56">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThanOrEqual">
+      <formula>B2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThanOrEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S57">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThanOrEqual">
+      <formula>S54</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7766,7 +7856,7 @@
         <v>13.3</v>
       </c>
       <c r="Q26" s="1">
-        <v>13.53</v>
+        <v>13.47</v>
       </c>
       <c r="R26" s="1">
         <v>14.31</v>
@@ -7828,7 +7918,7 @@
         <v>13.25</v>
       </c>
       <c r="Q27" s="1">
-        <v>13.53</v>
+        <v>13.42</v>
       </c>
       <c r="R27" s="1">
         <v>14.25</v>
@@ -7837,7 +7927,7 @@
         <v>15.39</v>
       </c>
       <c r="T27" s="1">
-        <v>17.46</v>
+        <v>17.43</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7890,7 +7980,7 @@
         <v>13.19</v>
       </c>
       <c r="Q28" s="1">
-        <v>13.47</v>
+        <v>13.36</v>
       </c>
       <c r="R28" s="1">
         <v>14.18</v>
@@ -7952,7 +8042,7 @@
         <v>13.13</v>
       </c>
       <c r="Q29" s="1">
-        <v>13.42</v>
+        <v>13.3</v>
       </c>
       <c r="R29" s="1">
         <v>14.12</v>
@@ -8014,7 +8104,7 @@
         <v>13.08</v>
       </c>
       <c r="Q30" s="1">
-        <v>13.36</v>
+        <v>13.25</v>
       </c>
       <c r="R30" s="1">
         <v>14.06</v>
@@ -8076,7 +8166,7 @@
         <v>13.03</v>
       </c>
       <c r="Q31" s="1">
-        <v>13.3</v>
+        <v>13.19</v>
       </c>
       <c r="R31" s="1">
         <v>13.59</v>
@@ -8138,7 +8228,7 @@
         <v>12.59</v>
       </c>
       <c r="Q32" s="1">
-        <v>13.25</v>
+        <v>13.13</v>
       </c>
       <c r="R32" s="1">
         <v>13.53</v>
@@ -8200,10 +8290,10 @@
         <v>12.56</v>
       </c>
       <c r="Q33" s="1">
-        <v>13.19</v>
+        <v>13.08</v>
       </c>
       <c r="R33" s="1">
-        <v>13.53</v>
+        <v>13.49</v>
       </c>
       <c r="S33" s="1">
         <v>14.58</v>
@@ -8262,7 +8352,7 @@
         <v>12.52</v>
       </c>
       <c r="Q34" s="1">
-        <v>13.13</v>
+        <v>13.03</v>
       </c>
       <c r="R34" s="1">
         <v>13.47</v>
@@ -8324,7 +8414,7 @@
         <v>12.49</v>
       </c>
       <c r="Q35" s="1">
-        <v>13.08</v>
+        <v>12.59</v>
       </c>
       <c r="R35" s="1">
         <v>13.42</v>
@@ -8386,7 +8476,7 @@
         <v>12.44</v>
       </c>
       <c r="Q36" s="1">
-        <v>13.03</v>
+        <v>12.56</v>
       </c>
       <c r="R36" s="1">
         <v>13.36</v>
@@ -8448,7 +8538,7 @@
         <v>12.39</v>
       </c>
       <c r="Q37" s="1">
-        <v>12.59</v>
+        <v>12.52</v>
       </c>
       <c r="R37" s="1">
         <v>13.3</v>
@@ -8510,7 +8600,7 @@
         <v>12.36</v>
       </c>
       <c r="Q38" s="1">
-        <v>12.56</v>
+        <v>12.49</v>
       </c>
       <c r="R38" s="1">
         <v>13.25</v>
@@ -8572,7 +8662,7 @@
         <v>12.32</v>
       </c>
       <c r="Q39" s="1">
-        <v>12.52</v>
+        <v>12.45</v>
       </c>
       <c r="R39" s="1">
         <v>13.19</v>
@@ -8634,7 +8724,7 @@
         <v>12.26</v>
       </c>
       <c r="Q40" s="1">
-        <v>12.49</v>
+        <v>12.41</v>
       </c>
       <c r="R40" s="1">
         <v>13.13</v>
@@ -8696,7 +8786,7 @@
         <v>12.23</v>
       </c>
       <c r="Q41" s="1">
-        <v>12.45</v>
+        <v>12.39</v>
       </c>
       <c r="R41" s="1">
         <v>13.09</v>
@@ -8758,7 +8848,7 @@
         <v>12.18</v>
       </c>
       <c r="Q42" s="1">
-        <v>12.41</v>
+        <v>12.36</v>
       </c>
       <c r="R42" s="1">
         <v>13.06</v>
@@ -8820,7 +8910,7 @@
         <v>12.13</v>
       </c>
       <c r="Q43" s="1">
-        <v>12.39</v>
+        <v>12.31</v>
       </c>
       <c r="R43" s="1">
         <v>13.03</v>
@@ -8882,7 +8972,7 @@
         <v>12.09</v>
       </c>
       <c r="Q44" s="1">
-        <v>12.36</v>
+        <v>12.26</v>
       </c>
       <c r="R44" s="1">
         <v>12.58</v>
@@ -8944,7 +9034,7 @@
         <v>12.04</v>
       </c>
       <c r="Q45" s="1">
-        <v>12.31</v>
+        <v>12.21</v>
       </c>
       <c r="R45" s="1">
         <v>12.52</v>
@@ -9006,7 +9096,7 @@
         <v>12</v>
       </c>
       <c r="Q46" s="1">
-        <v>12.26</v>
+        <v>12.16</v>
       </c>
       <c r="R46" s="1">
         <v>12.47</v>
@@ -9068,7 +9158,7 @@
         <v>11.55</v>
       </c>
       <c r="Q47" s="1">
-        <v>12.21</v>
+        <v>12.13</v>
       </c>
       <c r="R47" s="1">
         <v>12.42</v>
@@ -9130,7 +9220,7 @@
         <v>11.51</v>
       </c>
       <c r="Q48" s="1">
-        <v>12.16</v>
+        <v>12.1</v>
       </c>
       <c r="R48" s="1">
         <v>12.39</v>
@@ -9192,7 +9282,7 @@
         <v>11.46</v>
       </c>
       <c r="Q49" s="1">
-        <v>12.13</v>
+        <v>12.07</v>
       </c>
       <c r="R49" s="1">
         <v>12.36</v>
@@ -9254,7 +9344,7 @@
         <v>11.44</v>
       </c>
       <c r="Q50" s="1">
-        <v>12.1</v>
+        <v>12.04</v>
       </c>
       <c r="R50" s="1">
         <v>12.31</v>
@@ -9316,7 +9406,7 @@
         <v>11.39</v>
       </c>
       <c r="Q51" s="1">
-        <v>12.07</v>
+        <v>12.01</v>
       </c>
       <c r="R51" s="1">
         <v>12.26</v>
@@ -9378,7 +9468,7 @@
         <v>11.35</v>
       </c>
       <c r="Q52" s="1">
-        <v>12.04</v>
+        <v>11.58</v>
       </c>
       <c r="R52" s="1">
         <v>12.21</v>
@@ -9440,7 +9530,7 @@
         <v>11.32</v>
       </c>
       <c r="Q53" s="1">
-        <v>12.01</v>
+        <v>11.55</v>
       </c>
       <c r="R53" s="1">
         <v>12.16</v>
@@ -9502,7 +9592,7 @@
         <v>11.3</v>
       </c>
       <c r="Q54" s="1">
-        <v>11.58</v>
+        <v>11.54</v>
       </c>
       <c r="R54" s="1">
         <v>12.13</v>
@@ -9564,7 +9654,7 @@
         <v>11.27</v>
       </c>
       <c r="Q55" s="1">
-        <v>11.55</v>
+        <v>11.49</v>
       </c>
       <c r="R55" s="1">
         <v>12.1</v>
@@ -9626,7 +9716,7 @@
         <v>11.24</v>
       </c>
       <c r="Q56" s="1">
-        <v>11.54</v>
+        <v>11.45</v>
       </c>
       <c r="R56" s="1">
         <v>12.07</v>
@@ -9688,7 +9778,7 @@
         <v>11.17</v>
       </c>
       <c r="Q57" s="1">
-        <v>11.49</v>
+        <v>11.41</v>
       </c>
       <c r="R57" s="1">
         <v>12.04</v>
@@ -9750,7 +9840,7 @@
         <v>11.14</v>
       </c>
       <c r="Q58" s="1">
-        <v>11.45</v>
+        <v>11.36</v>
       </c>
       <c r="R58" s="1">
         <v>12.01</v>
@@ -9812,7 +9902,7 @@
         <v>11.11</v>
       </c>
       <c r="Q59" s="1">
-        <v>11.41</v>
+        <v>11.32</v>
       </c>
       <c r="R59" s="1">
         <v>11.58</v>
@@ -9874,7 +9964,7 @@
         <v>11.08</v>
       </c>
       <c r="Q60" s="1">
-        <v>11.36</v>
+        <v>11.28</v>
       </c>
       <c r="R60" s="1">
         <v>11.55</v>
@@ -9936,7 +10026,7 @@
         <v>11.05</v>
       </c>
       <c r="Q61" s="1">
-        <v>11.32</v>
+        <v>11.24</v>
       </c>
       <c r="R61" s="1">
         <v>11.54</v>
@@ -9998,7 +10088,7 @@
         <v>11.01</v>
       </c>
       <c r="Q62" s="1">
-        <v>11.28</v>
+        <v>11.2</v>
       </c>
       <c r="R62" s="1">
         <v>11.49</v>
@@ -10060,7 +10150,7 @@
         <v>10.57</v>
       </c>
       <c r="Q63" s="1">
-        <v>11.24</v>
+        <v>11.17</v>
       </c>
       <c r="R63" s="1">
         <v>11.45</v>
@@ -10122,7 +10212,7 @@
         <v>10.53</v>
       </c>
       <c r="Q64" s="1">
-        <v>11.21</v>
+        <v>11.15</v>
       </c>
       <c r="R64" s="1">
         <v>11.41</v>
@@ -10184,7 +10274,7 @@
         <v>10.51</v>
       </c>
       <c r="Q65" s="1">
-        <v>11.18</v>
+        <v>11.12</v>
       </c>
       <c r="R65" s="1">
         <v>11.36</v>
@@ -10246,7 +10336,7 @@
         <v>10.48</v>
       </c>
       <c r="Q66" s="1">
-        <v>11.13</v>
+        <v>11.11</v>
       </c>
       <c r="R66" s="1">
         <v>11.32</v>
@@ -10308,7 +10398,7 @@
         <v>10.46</v>
       </c>
       <c r="Q67" s="1">
-        <v>11.11</v>
+        <v>11.08</v>
       </c>
       <c r="R67" s="1">
         <v>11.28</v>
@@ -10370,7 +10460,7 @@
         <v>10.44</v>
       </c>
       <c r="Q68" s="1">
-        <v>11.08</v>
+        <v>11.07</v>
       </c>
       <c r="R68" s="1">
         <v>11.24</v>
@@ -11925,9 +12015,19 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:T77">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:T24 B25:P78 R25:T78 Q65:Q78 Q26:Q63">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThanOrEqual">
+      <formula>B2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThanOrEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q64">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThanOrEqual">
+      <formula>Q61</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/aerob-run-1mile5.xlsx
+++ b/xlsx/aerob-run-1mile5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="27495" windowHeight="12210"/>
+    <workbookView xWindow="2910" yWindow="0" windowWidth="21570" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="lányok" sheetId="1" r:id="rId1"/>
@@ -58,77 +58,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -164,6 +94,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1514,7 +1447,7 @@
         <v>19.34</v>
       </c>
       <c r="S17">
-        <v>20.28</v>
+        <v>20.32</v>
       </c>
       <c r="T17">
         <v>22.07</v>
@@ -1576,7 +1509,7 @@
         <v>19.260000000000002</v>
       </c>
       <c r="S18">
-        <v>20.149999999999999</v>
+        <v>20.23</v>
       </c>
       <c r="T18">
         <v>21.56</v>
@@ -1638,7 +1571,7 @@
         <v>19.18</v>
       </c>
       <c r="S19">
-        <v>20.03</v>
+        <v>20.14</v>
       </c>
       <c r="T19">
         <v>21.47</v>
@@ -1700,7 +1633,7 @@
         <v>19.11</v>
       </c>
       <c r="S20">
-        <v>19.5</v>
+        <v>20.05</v>
       </c>
       <c r="T20">
         <v>21.37</v>
@@ -1762,7 +1695,7 @@
         <v>19.03</v>
       </c>
       <c r="S21">
-        <v>19.38</v>
+        <v>19.54</v>
       </c>
       <c r="T21">
         <v>21.27</v>
@@ -1824,7 +1757,7 @@
         <v>18.559999999999999</v>
       </c>
       <c r="S22">
-        <v>19.260000000000002</v>
+        <v>19.45</v>
       </c>
       <c r="T22">
         <v>21.22</v>
@@ -1886,7 +1819,7 @@
         <v>18.48</v>
       </c>
       <c r="S23">
-        <v>19.18</v>
+        <v>19.34</v>
       </c>
       <c r="T23">
         <v>21.18</v>
@@ -1948,7 +1881,7 @@
         <v>18.41</v>
       </c>
       <c r="S24">
-        <v>19.07</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="T24">
         <v>21.04</v>
@@ -2010,7 +1943,7 @@
         <v>18.34</v>
       </c>
       <c r="S25">
-        <v>18.559999999999999</v>
+        <v>19.18</v>
       </c>
       <c r="T25">
         <v>20.5</v>
@@ -2072,7 +2005,7 @@
         <v>18.27</v>
       </c>
       <c r="S26">
-        <v>18.48</v>
+        <v>19.07</v>
       </c>
       <c r="T26">
         <v>20.41</v>
@@ -2134,7 +2067,7 @@
         <v>18.2</v>
       </c>
       <c r="S27">
-        <v>18.41</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="T27">
         <v>20.32</v>
@@ -2196,7 +2129,7 @@
         <v>18.13</v>
       </c>
       <c r="S28">
-        <v>18.34</v>
+        <v>18.48</v>
       </c>
       <c r="T28">
         <v>20.239999999999998</v>
@@ -2258,7 +2191,7 @@
         <v>18.059999999999999</v>
       </c>
       <c r="S29">
-        <v>18.27</v>
+        <v>18.41</v>
       </c>
       <c r="T29">
         <v>20.149999999999999</v>
@@ -2320,7 +2253,7 @@
         <v>17.559999999999999</v>
       </c>
       <c r="S30">
-        <v>18.2</v>
+        <v>18.34</v>
       </c>
       <c r="T30">
         <v>20.07</v>
@@ -2382,7 +2315,7 @@
         <v>17.46</v>
       </c>
       <c r="S31">
-        <v>18.13</v>
+        <v>18.27</v>
       </c>
       <c r="T31">
         <v>19.579999999999998</v>
@@ -2444,7 +2377,7 @@
         <v>17.36</v>
       </c>
       <c r="S32">
-        <v>18.059999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="T32">
         <v>19.5</v>
@@ -2506,7 +2439,7 @@
         <v>17.27</v>
       </c>
       <c r="S33">
-        <v>17.59</v>
+        <v>18.13</v>
       </c>
       <c r="T33">
         <v>19.46</v>
@@ -2568,7 +2501,7 @@
         <v>17.21</v>
       </c>
       <c r="S34">
-        <v>17.53</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="T34">
         <v>19.420000000000002</v>
@@ -2630,7 +2563,7 @@
         <v>17.14</v>
       </c>
       <c r="S35">
-        <v>17.46</v>
+        <v>17.59</v>
       </c>
       <c r="T35">
         <v>19.34</v>
@@ -2692,7 +2625,7 @@
         <v>17.079999999999998</v>
       </c>
       <c r="S36">
-        <v>17.399999999999999</v>
+        <v>17.53</v>
       </c>
       <c r="T36">
         <v>19.260000000000002</v>
@@ -2754,7 +2687,7 @@
         <v>17.02</v>
       </c>
       <c r="S37">
-        <v>17.329999999999998</v>
+        <v>17.46</v>
       </c>
       <c r="T37">
         <v>19.18</v>
@@ -2816,7 +2749,7 @@
         <v>16.559999999999999</v>
       </c>
       <c r="S38">
-        <v>17.239999999999998</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="T38">
         <v>19.11</v>
@@ -2878,7 +2811,7 @@
         <v>16.5</v>
       </c>
       <c r="S39">
-        <v>17.14</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="T39">
         <v>19.03</v>
@@ -2940,7 +2873,7 @@
         <v>16.440000000000001</v>
       </c>
       <c r="S40">
-        <v>17.11</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="T40">
         <v>18.559999999999999</v>
@@ -3002,7 +2935,7 @@
         <v>16.39</v>
       </c>
       <c r="S41">
-        <v>17.02</v>
+        <v>17.14</v>
       </c>
       <c r="T41">
         <v>18.48</v>
@@ -3064,7 +2997,7 @@
         <v>16.329999999999998</v>
       </c>
       <c r="S42">
-        <v>16.559999999999999</v>
+        <v>17.11</v>
       </c>
       <c r="T42">
         <v>18.45</v>
@@ -3126,7 +3059,7 @@
         <v>16.25</v>
       </c>
       <c r="S43">
-        <v>16.5</v>
+        <v>17.02</v>
       </c>
       <c r="T43">
         <v>18.34</v>
@@ -3188,7 +3121,7 @@
         <v>16.16</v>
       </c>
       <c r="S44">
-        <v>16.440000000000001</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="T44">
         <v>18.27</v>
@@ -3250,7 +3183,7 @@
         <v>16.11</v>
       </c>
       <c r="S45">
-        <v>16.39</v>
+        <v>16.5</v>
       </c>
       <c r="T45">
         <v>18.2</v>
@@ -3312,7 +3245,7 @@
         <v>16.05</v>
       </c>
       <c r="S46">
-        <v>16.329999999999998</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="T46">
         <v>18.13</v>
@@ -3374,7 +3307,7 @@
         <v>16</v>
       </c>
       <c r="S47">
-        <v>16.25</v>
+        <v>16.39</v>
       </c>
       <c r="T47">
         <v>18.059999999999999</v>
@@ -3436,7 +3369,7 @@
         <v>15.52</v>
       </c>
       <c r="S48">
-        <v>16.16</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="T48">
         <v>17.59</v>
@@ -3459,7 +3392,7 @@
         <v>12.39</v>
       </c>
       <c r="F49">
-        <v>12.39</v>
+        <v>12.35</v>
       </c>
       <c r="G49">
         <v>12.29</v>
@@ -3498,7 +3431,7 @@
         <v>15.44</v>
       </c>
       <c r="S49">
-        <v>16.11</v>
+        <v>16.25</v>
       </c>
       <c r="T49">
         <v>17.53</v>
@@ -3560,7 +3493,7 @@
         <v>15.39</v>
       </c>
       <c r="S50">
-        <v>16.05</v>
+        <v>16.16</v>
       </c>
       <c r="T50">
         <v>17.46</v>
@@ -3622,7 +3555,7 @@
         <v>15.34</v>
       </c>
       <c r="S51">
-        <v>16</v>
+        <v>16.11</v>
       </c>
       <c r="T51">
         <v>17.399999999999999</v>
@@ -3684,7 +3617,7 @@
         <v>15.29</v>
       </c>
       <c r="S52">
-        <v>15.52</v>
+        <v>16.05</v>
       </c>
       <c r="T52">
         <v>17.329999999999998</v>
@@ -3746,7 +3679,7 @@
         <v>15.24</v>
       </c>
       <c r="S53">
-        <v>15.44</v>
+        <v>16</v>
       </c>
       <c r="T53">
         <v>17.27</v>
@@ -3808,7 +3741,7 @@
         <v>15.19</v>
       </c>
       <c r="S54">
-        <v>15.39</v>
+        <v>15.52</v>
       </c>
       <c r="T54">
         <v>17.21</v>
@@ -3870,10 +3803,10 @@
         <v>15.15</v>
       </c>
       <c r="S55">
-        <v>15.37</v>
+        <v>15.46</v>
       </c>
       <c r="T55">
-        <v>17.14</v>
+        <v>17.149999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3932,10 +3865,10 @@
         <v>15.1</v>
       </c>
       <c r="S56">
-        <v>15.35</v>
+        <v>15.4</v>
       </c>
       <c r="T56">
-        <v>17.079999999999998</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3994,10 +3927,10 @@
         <v>15.05</v>
       </c>
       <c r="S57">
-        <v>15.33</v>
+        <v>15.35</v>
       </c>
       <c r="T57">
-        <v>17.02</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4056,10 +3989,10 @@
         <v>15</v>
       </c>
       <c r="S58">
-        <v>15.31</v>
+        <v>15.3</v>
       </c>
       <c r="T58">
-        <v>16.559999999999999</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4118,10 +4051,10 @@
         <v>14.56</v>
       </c>
       <c r="S59">
-        <v>15.29</v>
+        <v>15.25</v>
       </c>
       <c r="T59">
-        <v>16.5</v>
+        <v>16.510000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4180,10 +4113,10 @@
         <v>14.51</v>
       </c>
       <c r="S60">
-        <v>15.27</v>
+        <v>15.2</v>
       </c>
       <c r="T60">
-        <v>16.440000000000001</v>
+        <v>16.45</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4191,7 +4124,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>12.01</v>
+        <v>12.04</v>
       </c>
       <c r="C61">
         <v>11.52</v>
@@ -4253,7 +4186,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>11.52</v>
+        <v>11.58</v>
       </c>
       <c r="C62">
         <v>11.46</v>
@@ -4304,7 +4237,7 @@
         <v>14.42</v>
       </c>
       <c r="S62">
-        <v>15.15</v>
+        <v>15.14</v>
       </c>
       <c r="T62">
         <v>16.329999999999998</v>
@@ -4315,7 +4248,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>11.44</v>
+        <v>11.51</v>
       </c>
       <c r="C63">
         <v>11.38</v>
@@ -4366,7 +4299,7 @@
         <v>14.35</v>
       </c>
       <c r="S63">
-        <v>15.07</v>
+        <v>15.09</v>
       </c>
       <c r="T63">
         <v>16.25</v>
@@ -4377,7 +4310,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="C64">
         <v>11.32</v>
@@ -4428,7 +4361,7 @@
         <v>14.29</v>
       </c>
       <c r="S64">
-        <v>15</v>
+        <v>15.03</v>
       </c>
       <c r="T64">
         <v>16.16</v>
@@ -4439,7 +4372,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>11.36</v>
+        <v>11.39</v>
       </c>
       <c r="C65">
         <v>11.24</v>
@@ -4490,7 +4423,7 @@
         <v>14.22</v>
       </c>
       <c r="S65">
-        <v>14.53</v>
+        <v>14.58</v>
       </c>
       <c r="T65">
         <v>16.11</v>
@@ -4501,7 +4434,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>11.32</v>
+        <v>11.33</v>
       </c>
       <c r="C66">
         <v>11.19</v>
@@ -4552,7 +4485,7 @@
         <v>14.16</v>
       </c>
       <c r="S66">
-        <v>14.47</v>
+        <v>14.52</v>
       </c>
       <c r="T66">
         <v>16.05</v>
@@ -4563,7 +4496,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>11.24</v>
+        <v>11.27</v>
       </c>
       <c r="C67">
         <v>11.14</v>
@@ -4625,7 +4558,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>11.19</v>
+        <v>11.21</v>
       </c>
       <c r="C68">
         <v>11.08</v>
@@ -4687,7 +4620,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>11.14</v>
+        <v>11.15</v>
       </c>
       <c r="C69">
         <v>11.03</v>
@@ -4749,7 +4682,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>11.08</v>
+        <v>11.06</v>
       </c>
       <c r="C70">
         <v>10.58</v>
@@ -4811,7 +4744,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>11.03</v>
+        <v>11.02</v>
       </c>
       <c r="C71">
         <v>10.53</v>
@@ -4873,7 +4806,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>10.58</v>
+        <v>10.57</v>
       </c>
       <c r="C72">
         <v>10.48</v>
@@ -6229,7 +6162,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
       <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6594,7 +6527,7 @@
         <v>15.1</v>
       </c>
       <c r="L6">
-        <v>14.54</v>
+        <v>15</v>
       </c>
       <c r="M6">
         <v>14.42</v>
@@ -6774,7 +6707,7 @@
         <v>15.24</v>
       </c>
       <c r="J9">
-        <v>14.54</v>
+        <v>15</v>
       </c>
       <c r="K9">
         <v>14.42</v>
@@ -7849,7 +7782,7 @@
         <v>13.3</v>
       </c>
       <c r="Q26">
-        <v>13.47</v>
+        <v>13.53</v>
       </c>
       <c r="R26">
         <v>14.31</v>
@@ -7911,7 +7844,7 @@
         <v>13.25</v>
       </c>
       <c r="Q27">
-        <v>13.42</v>
+        <v>13.5</v>
       </c>
       <c r="R27">
         <v>14.25</v>
@@ -7920,7 +7853,7 @@
         <v>15.39</v>
       </c>
       <c r="T27">
-        <v>17.43</v>
+        <v>17.46</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7973,7 +7906,7 @@
         <v>13.19</v>
       </c>
       <c r="Q28">
-        <v>13.36</v>
+        <v>13.47</v>
       </c>
       <c r="R28">
         <v>14.18</v>
@@ -8035,7 +7968,7 @@
         <v>13.13</v>
       </c>
       <c r="Q29">
-        <v>13.3</v>
+        <v>13.42</v>
       </c>
       <c r="R29">
         <v>14.12</v>
@@ -8097,7 +8030,7 @@
         <v>13.08</v>
       </c>
       <c r="Q30">
-        <v>13.25</v>
+        <v>13.36</v>
       </c>
       <c r="R30">
         <v>14.06</v>
@@ -8159,7 +8092,7 @@
         <v>13.03</v>
       </c>
       <c r="Q31">
-        <v>13.19</v>
+        <v>13.3</v>
       </c>
       <c r="R31">
         <v>13.59</v>
@@ -8221,7 +8154,7 @@
         <v>12.59</v>
       </c>
       <c r="Q32">
-        <v>13.13</v>
+        <v>13.25</v>
       </c>
       <c r="R32">
         <v>13.53</v>
@@ -8283,10 +8216,10 @@
         <v>12.56</v>
       </c>
       <c r="Q33">
-        <v>13.08</v>
+        <v>13.19</v>
       </c>
       <c r="R33">
-        <v>13.49</v>
+        <v>13.5</v>
       </c>
       <c r="S33">
         <v>14.58</v>
@@ -8345,7 +8278,7 @@
         <v>12.52</v>
       </c>
       <c r="Q34">
-        <v>13.03</v>
+        <v>13.13</v>
       </c>
       <c r="R34">
         <v>13.47</v>
@@ -8407,7 +8340,7 @@
         <v>12.49</v>
       </c>
       <c r="Q35">
-        <v>12.59</v>
+        <v>13.08</v>
       </c>
       <c r="R35">
         <v>13.42</v>
@@ -8469,7 +8402,7 @@
         <v>12.44</v>
       </c>
       <c r="Q36">
-        <v>12.56</v>
+        <v>13.03</v>
       </c>
       <c r="R36">
         <v>13.36</v>
@@ -8531,7 +8464,7 @@
         <v>12.39</v>
       </c>
       <c r="Q37">
-        <v>12.52</v>
+        <v>12.59</v>
       </c>
       <c r="R37">
         <v>13.3</v>
@@ -8593,7 +8526,7 @@
         <v>12.36</v>
       </c>
       <c r="Q38">
-        <v>12.49</v>
+        <v>12.56</v>
       </c>
       <c r="R38">
         <v>13.25</v>
@@ -8655,7 +8588,7 @@
         <v>12.32</v>
       </c>
       <c r="Q39">
-        <v>12.45</v>
+        <v>12.52</v>
       </c>
       <c r="R39">
         <v>13.19</v>
@@ -8717,7 +8650,7 @@
         <v>12.26</v>
       </c>
       <c r="Q40">
-        <v>12.41</v>
+        <v>12.49</v>
       </c>
       <c r="R40">
         <v>13.13</v>
@@ -8779,7 +8712,7 @@
         <v>12.23</v>
       </c>
       <c r="Q41">
-        <v>12.39</v>
+        <v>12.45</v>
       </c>
       <c r="R41">
         <v>13.09</v>
@@ -8841,7 +8774,7 @@
         <v>12.18</v>
       </c>
       <c r="Q42">
-        <v>12.36</v>
+        <v>12.41</v>
       </c>
       <c r="R42">
         <v>13.06</v>
@@ -8903,7 +8836,7 @@
         <v>12.13</v>
       </c>
       <c r="Q43">
-        <v>12.31</v>
+        <v>12.39</v>
       </c>
       <c r="R43">
         <v>13.03</v>
@@ -8965,7 +8898,7 @@
         <v>12.09</v>
       </c>
       <c r="Q44">
-        <v>12.26</v>
+        <v>12.36</v>
       </c>
       <c r="R44">
         <v>12.58</v>
@@ -9027,7 +8960,7 @@
         <v>12.04</v>
       </c>
       <c r="Q45">
-        <v>12.21</v>
+        <v>12.31</v>
       </c>
       <c r="R45">
         <v>12.52</v>
@@ -9089,7 +9022,7 @@
         <v>12</v>
       </c>
       <c r="Q46">
-        <v>12.16</v>
+        <v>12.26</v>
       </c>
       <c r="R46">
         <v>12.47</v>
@@ -9151,7 +9084,7 @@
         <v>11.55</v>
       </c>
       <c r="Q47">
-        <v>12.13</v>
+        <v>12.21</v>
       </c>
       <c r="R47">
         <v>12.42</v>
@@ -9213,7 +9146,7 @@
         <v>11.51</v>
       </c>
       <c r="Q48">
-        <v>12.1</v>
+        <v>12.16</v>
       </c>
       <c r="R48">
         <v>12.39</v>
@@ -9275,7 +9208,7 @@
         <v>11.46</v>
       </c>
       <c r="Q49">
-        <v>12.07</v>
+        <v>12.13</v>
       </c>
       <c r="R49">
         <v>12.36</v>
@@ -9337,7 +9270,7 @@
         <v>11.44</v>
       </c>
       <c r="Q50">
-        <v>12.04</v>
+        <v>12.1</v>
       </c>
       <c r="R50">
         <v>12.31</v>
@@ -9399,7 +9332,7 @@
         <v>11.39</v>
       </c>
       <c r="Q51">
-        <v>12.01</v>
+        <v>12.07</v>
       </c>
       <c r="R51">
         <v>12.26</v>
@@ -9461,7 +9394,7 @@
         <v>11.35</v>
       </c>
       <c r="Q52">
-        <v>11.58</v>
+        <v>12.04</v>
       </c>
       <c r="R52">
         <v>12.21</v>
@@ -9523,7 +9456,7 @@
         <v>11.32</v>
       </c>
       <c r="Q53">
-        <v>11.55</v>
+        <v>12.01</v>
       </c>
       <c r="R53">
         <v>12.16</v>
@@ -9585,7 +9518,7 @@
         <v>11.3</v>
       </c>
       <c r="Q54">
-        <v>11.54</v>
+        <v>11.58</v>
       </c>
       <c r="R54">
         <v>12.13</v>
@@ -9647,7 +9580,7 @@
         <v>11.27</v>
       </c>
       <c r="Q55">
-        <v>11.49</v>
+        <v>11.55</v>
       </c>
       <c r="R55">
         <v>12.1</v>
@@ -9709,7 +9642,7 @@
         <v>11.24</v>
       </c>
       <c r="Q56">
-        <v>11.45</v>
+        <v>11.54</v>
       </c>
       <c r="R56">
         <v>12.07</v>
@@ -9771,7 +9704,7 @@
         <v>11.17</v>
       </c>
       <c r="Q57">
-        <v>11.41</v>
+        <v>11.49</v>
       </c>
       <c r="R57">
         <v>12.04</v>
@@ -9833,7 +9766,7 @@
         <v>11.14</v>
       </c>
       <c r="Q58">
-        <v>11.36</v>
+        <v>11.45</v>
       </c>
       <c r="R58">
         <v>12.01</v>
@@ -9895,7 +9828,7 @@
         <v>11.11</v>
       </c>
       <c r="Q59">
-        <v>11.32</v>
+        <v>11.41</v>
       </c>
       <c r="R59">
         <v>11.58</v>
@@ -9957,7 +9890,7 @@
         <v>11.08</v>
       </c>
       <c r="Q60">
-        <v>11.28</v>
+        <v>11.36</v>
       </c>
       <c r="R60">
         <v>11.55</v>
@@ -10019,7 +9952,7 @@
         <v>11.05</v>
       </c>
       <c r="Q61">
-        <v>11.24</v>
+        <v>11.32</v>
       </c>
       <c r="R61">
         <v>11.54</v>
@@ -10081,7 +10014,7 @@
         <v>11.01</v>
       </c>
       <c r="Q62">
-        <v>11.2</v>
+        <v>11.28</v>
       </c>
       <c r="R62">
         <v>11.49</v>
@@ -10143,7 +10076,7 @@
         <v>10.57</v>
       </c>
       <c r="Q63">
-        <v>11.17</v>
+        <v>11.24</v>
       </c>
       <c r="R63">
         <v>11.45</v>
@@ -10205,7 +10138,7 @@
         <v>10.53</v>
       </c>
       <c r="Q64">
-        <v>11.15</v>
+        <v>11.17</v>
       </c>
       <c r="R64">
         <v>11.41</v>
@@ -10329,7 +10262,7 @@
         <v>10.48</v>
       </c>
       <c r="Q66">
-        <v>11.11</v>
+        <v>11.07</v>
       </c>
       <c r="R66">
         <v>11.32</v>
@@ -10391,7 +10324,7 @@
         <v>10.46</v>
       </c>
       <c r="Q67">
-        <v>11.08</v>
+        <v>11</v>
       </c>
       <c r="R67">
         <v>11.28</v>
@@ -10453,7 +10386,7 @@
         <v>10.44</v>
       </c>
       <c r="Q68">
-        <v>11.07</v>
+        <v>10.58</v>
       </c>
       <c r="R68">
         <v>11.24</v>
@@ -10515,10 +10448,10 @@
         <v>10.41</v>
       </c>
       <c r="Q69">
-        <v>11.06</v>
+        <v>10.55</v>
       </c>
       <c r="R69">
-        <v>11.18</v>
+        <v>11.2</v>
       </c>
       <c r="S69">
         <v>11.55</v>
@@ -10577,7 +10510,7 @@
         <v>10.39</v>
       </c>
       <c r="Q70">
-        <v>11.03</v>
+        <v>10.51</v>
       </c>
       <c r="R70">
         <v>11.16</v>
@@ -10639,7 +10572,7 @@
         <v>10.37</v>
       </c>
       <c r="Q71">
-        <v>11.01</v>
+        <v>10.47</v>
       </c>
       <c r="R71">
         <v>11.12</v>
@@ -10701,7 +10634,7 @@
         <v>10.34</v>
       </c>
       <c r="Q72">
-        <v>10.58</v>
+        <v>10.44</v>
       </c>
       <c r="R72">
         <v>11.08</v>
@@ -10763,7 +10696,7 @@
         <v>10.31</v>
       </c>
       <c r="Q73">
-        <v>10.55</v>
+        <v>10.4</v>
       </c>
       <c r="R73">
         <v>11.06</v>
@@ -10825,7 +10758,7 @@
         <v>10.27</v>
       </c>
       <c r="Q74">
-        <v>10.51</v>
+        <v>10.38</v>
       </c>
       <c r="R74">
         <v>11.03</v>
@@ -10887,7 +10820,7 @@
         <v>10.24</v>
       </c>
       <c r="Q75">
-        <v>10.47</v>
+        <v>10.34</v>
       </c>
       <c r="R75">
         <v>11.01</v>
@@ -10949,7 +10882,7 @@
         <v>10.210000000000001</v>
       </c>
       <c r="Q76">
-        <v>10.44</v>
+        <v>10.3</v>
       </c>
       <c r="R76">
         <v>10.58</v>
@@ -11011,7 +10944,7 @@
         <v>10.17</v>
       </c>
       <c r="Q77">
-        <v>10.4</v>
+        <v>10.27</v>
       </c>
       <c r="R77">
         <v>10.56</v>
@@ -11073,7 +11006,7 @@
         <v>10.14</v>
       </c>
       <c r="Q78">
-        <v>10.38</v>
+        <v>10.25</v>
       </c>
       <c r="R78">
         <v>10.53</v>
@@ -12008,7 +11941,7 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B3:T78">
+  <conditionalFormatting sqref="B3:T67 B68:P78 R68:T78 Q69:Q78">
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -12016,6 +11949,14 @@
       <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q68">
+    <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThanOrEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>